--- a/biology/Botanique/Jardin_botanique_de_l'Université_de_Tartu/Jardin_botanique_de_l'Université_de_Tartu.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'Université_de_Tartu/Jardin_botanique_de_l'Université_de_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27Universit%C3%A9_de_Tartu</t>
+          <t>Jardin_botanique_de_l'Université_de_Tartu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de l'université de Tartu (estonien : Tartu Ülikooli Botaanikaaed) est un jardin botanique situé a Lai tänav 38 à Tartu en Estonie. Il dépend de l'université de Tartu.
 Il a été fondé en 1803 par le professeur G. A. Germann de l'université de Tartu. Il occupe son emplacement actuel depuis 1806.
-Il abrite 10 000 variétés de plantes sur 3,5 hectares et abrite une serre tropicale[1].
+Il abrite 10 000 variétés de plantes sur 3,5 hectares et abrite une serre tropicale.
 </t>
         </is>
       </c>
